--- a/ExcelModel/test.xlsx
+++ b/ExcelModel/test.xlsx
@@ -1044,7 +1044,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,22 +1054,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1118,21 +1102,15 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1140,127 +1118,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1569,591 +1434,537 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I12"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="38.875" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="43.5" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="34.5" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="18.75" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="1" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1">
-      <c r="A2" s="11" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>20</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>36</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6" t="s">
+      <c r="I4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="7" t="s">
+      <c r="I5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="7" t="s">
+      <c r="I6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7" t="s">
+      <c r="I7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6" t="s">
+      <c r="I8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6" t="s">
+      <c r="I9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8" t="s">
+      <c r="I10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="8" t="s">
+      <c r="I11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6" t="s">
+      <c r="I12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6" t="s">
+      <c r="I13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6" t="s">
+      <c r="I14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="7" t="s">
+      <c r="I15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="7" t="s">
+      <c r="I16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="7" t="s">
+      <c r="I17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6" t="s">
+      <c r="I18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6" t="s">
+      <c r="I19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="8" t="s">
+      <c r="I20" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="8" t="s">
+      <c r="I21" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6" t="s">
+      <c r="I22" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="14" t="s">
+      <c r="A23" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="15" t="s">
+      <c r="I23" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2161,9 +1972,6 @@
       <c r="F28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
